--- a/spreadsheets/Azir.xlsx
+++ b/spreadsheets/Azir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718D672C-FBCF-42C9-B386-946E74DAFF47}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B73ED7-4001-47B7-96ED-C1989F4B6719}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29505" yWindow="705" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34725" yWindow="3450" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>Champion</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dodging a skill shot every two seconds makes this matchup beyond frustrating. Xeraths passive will allow him to outsustain your mana in lane. Consider taking teleport, and comet to match him 1v1 in lane. Hope that your jungler gives you blue buff other wise you will be pushed and poked under tower and unable to get mid priority.  </t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -876,7 +879,9 @@
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
